--- a/REGULAR/OJT/PETIL, GLENDA DE VILLA.xlsx
+++ b/REGULAR/OJT/PETIL, GLENDA DE VILLA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C47AA-BF4E-4CAB-892C-9CDB99A679B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="349">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1086,7 +1085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1768,7 +1767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1785,25 +1784,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K547" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K548" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2110,34 +2109,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K547"/>
+  <dimension ref="A2:K548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A532" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A523" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B541" sqref="B541"/>
+      <selection pane="bottomLeft" activeCell="K542" sqref="K542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2158,7 +2157,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2175,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2197,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2206,7 +2205,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2219,7 +2218,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2236,7 +2235,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2290,12 +2289,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.875</v>
+        <v>200.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>95</v>
       </c>
@@ -2313,7 +2312,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>96</v>
       </c>
@@ -2333,7 +2332,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>97</v>
       </c>
@@ -2353,7 +2352,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>98</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>33604</v>
       </c>
@@ -2391,7 +2390,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A14,1)</f>
         <v>33635</v>
@@ -2412,7 +2411,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" ref="A16:A85" si="0">EDATE(A15,1)</f>
         <v>33664</v>
@@ -2433,7 +2432,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>33695</v>
@@ -2454,7 +2453,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -2475,7 +2474,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -2496,7 +2495,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -2517,7 +2516,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -2538,7 +2537,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -2559,7 +2558,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -2580,7 +2579,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -2601,7 +2600,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -2626,7 +2625,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>99</v>
       </c>
@@ -2648,7 +2647,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A25,1)</f>
         <v>33970</v>
@@ -2669,7 +2668,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>34001</v>
@@ -2690,7 +2689,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>34029</v>
@@ -2711,7 +2710,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -2732,7 +2731,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -2753,7 +2752,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -2778,7 +2777,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -2803,7 +2802,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -2824,7 +2823,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -2851,7 +2850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -2878,7 +2877,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -2899,7 +2898,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -2920,7 +2919,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>100</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>34335</v>
@@ -2965,7 +2964,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -2986,7 +2985,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -3007,7 +3006,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -3034,7 +3033,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>34455</v>
@@ -3061,7 +3060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -3082,7 +3081,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -3107,7 +3106,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -3128,7 +3127,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -3155,7 +3154,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -3176,7 +3175,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -3197,7 +3196,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -3222,7 +3221,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>105</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>34700</v>
@@ -3271,7 +3270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -3292,7 +3291,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -3313,7 +3312,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -3340,7 +3339,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -3367,7 +3366,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -3388,7 +3387,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -3409,7 +3408,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -3436,7 +3435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -3457,7 +3456,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -3484,7 +3483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -3505,7 +3504,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -3530,7 +3529,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>104</v>
       </c>
@@ -3552,7 +3551,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>35065</v>
@@ -3579,7 +3578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -3600,7 +3599,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -3621,7 +3620,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -3642,7 +3641,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -3667,7 +3666,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -3692,7 +3691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -3713,7 +3712,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -3734,7 +3733,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -3757,7 +3756,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3778,7 +3777,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -3799,7 +3798,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3824,7 +3823,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>123</v>
@@ -3846,7 +3845,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>103</v>
       </c>
@@ -3868,7 +3867,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A77,1)</f>
         <v>35431</v>
@@ -3889,7 +3888,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -3910,7 +3909,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -3931,7 +3930,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -3952,7 +3951,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -3973,7 +3972,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -3994,7 +3993,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A151" si="1">EDATE(A85,1)</f>
         <v>35612</v>
@@ -4015,7 +4014,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4036,7 +4035,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4063,7 +4062,7 @@
         <v>35712</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4088,7 +4087,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -4109,7 +4108,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4134,7 +4133,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>128</v>
@@ -4154,7 +4153,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>102</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A91,1)</f>
         <v>35796</v>
@@ -4197,7 +4196,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -4218,7 +4217,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -4241,7 +4240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4262,7 +4261,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4283,7 +4282,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4304,7 +4303,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4331,7 +4330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4352,7 +4351,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4373,7 +4372,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4394,7 +4393,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4415,7 +4414,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -4442,7 +4441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>129</v>
@@ -4462,7 +4461,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>101</v>
       </c>
@@ -4484,7 +4483,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A105,1)</f>
         <v>36161</v>
@@ -4505,7 +4504,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -4526,7 +4525,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -4547,7 +4546,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4568,7 +4567,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -4589,7 +4588,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4610,7 +4609,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4631,7 +4630,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4652,7 +4651,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4673,7 +4672,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4694,7 +4693,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4721,7 +4720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -4748,7 +4747,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>133</v>
       </c>
@@ -4770,7 +4769,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>36526</v>
@@ -4791,7 +4790,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -4812,7 +4811,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>36586</v>
@@ -4833,7 +4832,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -4854,7 +4853,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -4879,7 +4878,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4900,7 +4899,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4921,7 +4920,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4942,7 +4941,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4963,7 +4962,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4990,7 +4989,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -5017,7 +5016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5042,7 +5041,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>134</v>
       </c>
@@ -5064,7 +5063,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>36892</v>
@@ -5089,7 +5088,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -5114,7 +5113,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5139,7 +5138,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5162,7 +5161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5183,7 +5182,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5210,7 +5209,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5231,7 +5230,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5256,7 +5255,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5281,7 +5280,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5302,7 +5301,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -5329,7 +5328,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>156</v>
@@ -5349,7 +5348,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37226</v>
@@ -5374,7 +5373,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>137</v>
       </c>
@@ -5396,7 +5395,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37257</v>
@@ -5417,7 +5416,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -5442,7 +5441,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -5463,7 +5462,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -5488,7 +5487,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A228" si="2">EDATE(A151,1)</f>
         <v>37377</v>
@@ -5515,7 +5514,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>161</v>
@@ -5535,7 +5534,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37408</v>
@@ -5558,7 +5557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="2"/>
         <v>37438</v>
@@ -5585,7 +5584,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="2"/>
         <v>37469</v>
@@ -5610,7 +5609,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="2"/>
         <v>37500</v>
@@ -5635,7 +5634,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="2"/>
         <v>37530</v>
@@ -5662,7 +5661,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="2"/>
         <v>37561</v>
@@ -5683,7 +5682,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="2"/>
         <v>37591</v>
@@ -5708,7 +5707,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>138</v>
       </c>
@@ -5730,7 +5729,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>37622</v>
@@ -5757,7 +5756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="2"/>
         <v>37653</v>
@@ -5782,7 +5781,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="2"/>
         <v>37681</v>
@@ -5807,7 +5806,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -5828,7 +5827,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -5853,7 +5852,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -5880,7 +5879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -5905,7 +5904,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -5926,7 +5925,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
@@ -5947,7 +5946,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -5968,7 +5967,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="2"/>
         <v>37926</v>
@@ -5989,7 +5988,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -6010,7 +6009,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>139</v>
       </c>
@@ -6032,7 +6031,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>37987</v>
@@ -6053,7 +6052,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="2"/>
         <v>38018</v>
@@ -6074,7 +6073,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>38047</v>
@@ -6097,7 +6096,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -6118,7 +6117,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -6139,7 +6138,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -6166,7 +6165,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -6187,7 +6186,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -6208,7 +6207,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -6229,7 +6228,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -6250,7 +6249,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -6271,7 +6270,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -6296,7 +6295,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="48" t="s">
         <v>140</v>
       </c>
@@ -6318,7 +6317,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>38353</v>
@@ -6339,7 +6338,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -6366,7 +6365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -6389,7 +6388,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -6410,7 +6409,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -6435,7 +6434,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -6460,7 +6459,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -6487,7 +6486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -6510,7 +6509,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -6533,7 +6532,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -6558,7 +6557,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -6579,7 +6578,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -6604,7 +6603,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>141</v>
       </c>
@@ -6626,7 +6625,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A199,1)</f>
         <v>38718</v>
@@ -6651,7 +6650,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -6672,7 +6671,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -6697,7 +6696,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>47</v>
@@ -6717,7 +6716,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38808</v>
@@ -6738,7 +6737,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -6759,7 +6758,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -6780,7 +6779,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -6805,7 +6804,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -6830,7 +6829,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -6855,7 +6854,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -6882,7 +6881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -6907,7 +6906,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -6928,7 +6927,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>142</v>
       </c>
@@ -6950,7 +6949,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39083</v>
@@ -6977,7 +6976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>191</v>
@@ -6997,7 +6996,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>39114</v>
@@ -7022,7 +7021,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -7049,7 +7048,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>193</v>
@@ -7069,7 +7068,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39173</v>
@@ -7094,7 +7093,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -7121,7 +7120,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>196</v>
@@ -7141,7 +7140,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A221,1)</f>
         <v>39234</v>
@@ -7166,7 +7165,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>47</v>
@@ -7186,7 +7185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>197</v>
@@ -7206,7 +7205,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>39264</v>
@@ -7231,7 +7230,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -7256,7 +7255,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -7277,7 +7276,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A319" si="3">EDATE(A228,1)</f>
         <v>39356</v>
@@ -7298,7 +7297,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -7319,7 +7318,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="3"/>
         <v>39417</v>
@@ -7340,7 +7339,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>143</v>
       </c>
@@ -7362,7 +7361,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>39448</v>
@@ -7383,7 +7382,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="3"/>
         <v>39479</v>
@@ -7404,7 +7403,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="3"/>
         <v>39508</v>
@@ -7425,7 +7424,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -7446,7 +7445,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -7467,7 +7466,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -7492,7 +7491,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>47</v>
@@ -7512,7 +7511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -7532,7 +7531,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A238,1)</f>
         <v>39630</v>
@@ -7553,7 +7552,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -7574,7 +7573,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -7601,7 +7600,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>48</v>
@@ -7623,7 +7622,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39722</v>
@@ -7644,7 +7643,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="3"/>
         <v>39753</v>
@@ -7671,7 +7670,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>203</v>
@@ -7691,7 +7690,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>39783</v>
@@ -7716,7 +7715,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>144</v>
       </c>
@@ -7738,7 +7737,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39814</v>
@@ -7763,7 +7762,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="3"/>
         <v>39845</v>
@@ -7788,7 +7787,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="3"/>
         <v>39873</v>
@@ -7815,7 +7814,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>48</v>
@@ -7837,7 +7836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>47</v>
@@ -7857,7 +7856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>87</v>
@@ -7879,7 +7878,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>47</v>
@@ -7899,7 +7898,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A252,1)</f>
         <v>39904</v>
@@ -7924,7 +7923,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39934</v>
@@ -7949,7 +7948,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39965</v>
@@ -7974,7 +7973,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>48</v>
@@ -7996,7 +7995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>220</v>
@@ -8016,7 +8015,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A259,1)</f>
         <v>39995</v>
@@ -8041,7 +8040,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -8068,7 +8067,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>222</v>
@@ -8088,7 +8087,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A263,1)</f>
         <v>40057</v>
@@ -8113,7 +8112,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="3"/>
         <v>40087</v>
@@ -8140,7 +8139,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="3"/>
         <v>40118</v>
@@ -8165,7 +8164,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="3"/>
         <v>40148</v>
@@ -8186,7 +8185,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="48" t="s">
         <v>216</v>
       </c>
@@ -8208,7 +8207,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>40179</v>
@@ -8235,7 +8234,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>241</v>
@@ -8255,7 +8254,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>40210</v>
@@ -8280,7 +8279,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="3"/>
         <v>40238</v>
@@ -8305,7 +8304,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>234</v>
@@ -8325,7 +8324,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>40269</v>
@@ -8352,7 +8351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>243</v>
@@ -8372,7 +8371,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40299</v>
@@ -8397,7 +8396,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="3"/>
         <v>40330</v>
@@ -8422,7 +8421,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>236</v>
@@ -8442,7 +8441,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>40360</v>
@@ -8469,7 +8468,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -8496,7 +8495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>246</v>
@@ -8516,7 +8515,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>40422</v>
@@ -8537,7 +8536,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>40452</v>
@@ -8562,7 +8561,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A284,1)</f>
         <v>40483</v>
@@ -8587,7 +8586,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>233</v>
@@ -8609,7 +8608,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>40513</v>
@@ -8634,7 +8633,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>215</v>
       </c>
@@ -8656,7 +8655,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40544</v>
@@ -8683,7 +8682,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="3"/>
         <v>40575</v>
@@ -8710,7 +8709,7 @@
         <v>40665</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>249</v>
@@ -8730,7 +8729,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>40603</v>
@@ -8757,7 +8756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>47</v>
@@ -8777,7 +8776,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>47</v>
@@ -8797,7 +8796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>154</v>
@@ -8817,7 +8816,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A292,1)</f>
         <v>40634</v>
@@ -8844,7 +8843,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>129</v>
@@ -8866,7 +8865,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>251</v>
@@ -8886,7 +8885,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>47</v>
@@ -8906,7 +8905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A296,1)</f>
         <v>40664</v>
@@ -8931,7 +8930,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="3"/>
         <v>40695</v>
@@ -8956,7 +8955,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -8981,7 +8980,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -9008,7 +9007,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>87</v>
@@ -9030,7 +9029,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>253</v>
@@ -9050,7 +9049,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40787</v>
@@ -9071,7 +9070,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -9096,7 +9095,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -9117,7 +9116,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -9138,7 +9137,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>214</v>
       </c>
@@ -9160,7 +9159,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>40909</v>
@@ -9187,7 +9186,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>48</v>
@@ -9209,7 +9208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40940</v>
@@ -9236,7 +9235,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>48</v>
@@ -9258,7 +9257,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>40969</v>
@@ -9285,7 +9284,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="3"/>
         <v>41000</v>
@@ -9306,7 +9305,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -9331,7 +9330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -9358,7 +9357,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -9385,7 +9384,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>48</v>
@@ -9407,7 +9406,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>262</v>
@@ -9427,7 +9426,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41122</v>
@@ -9452,7 +9451,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" ref="A323:A404" si="4">EDATE(A322,1)</f>
         <v>41153</v>
@@ -9479,7 +9478,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>150</v>
@@ -9499,7 +9498,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>87</v>
@@ -9521,7 +9520,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A323,1)</f>
         <v>41183</v>
@@ -9542,7 +9541,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -9569,7 +9568,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="4"/>
         <v>41244</v>
@@ -9590,7 +9589,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="48" t="s">
         <v>213</v>
       </c>
@@ -9612,7 +9611,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>41275</v>
@@ -9633,7 +9632,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="4"/>
         <v>41306</v>
@@ -9660,7 +9659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>47</v>
@@ -9680,7 +9679,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>41334</v>
@@ -9701,7 +9700,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="4"/>
         <v>41365</v>
@@ -9728,7 +9727,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>48</v>
@@ -9750,7 +9749,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A334,1)</f>
         <v>41395</v>
@@ -9777,7 +9776,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41426</v>
@@ -9802,7 +9801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -9829,7 +9828,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>274</v>
@@ -9849,7 +9848,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>41487</v>
@@ -9874,7 +9873,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -9901,7 +9900,7 @@
         <v>41314</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -9923,7 +9922,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>281</v>
@@ -9943,7 +9942,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>41548</v>
@@ -9968,7 +9967,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -9993,7 +9992,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -10018,7 +10017,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>48</v>
@@ -10040,7 +10039,7 @@
         <v>41529</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>284</v>
@@ -10060,7 +10059,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>212</v>
       </c>
@@ -10082,7 +10081,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A346,1)</f>
         <v>41640</v>
@@ -10109,7 +10108,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>287</v>
@@ -10129,7 +10128,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>41671</v>
@@ -10156,7 +10155,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>288</v>
@@ -10176,7 +10175,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41699</v>
@@ -10201,7 +10200,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>290</v>
@@ -10221,7 +10220,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>41730</v>
@@ -10248,7 +10247,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>291</v>
@@ -10268,7 +10267,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41760</v>
@@ -10295,7 +10294,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>292</v>
@@ -10317,7 +10316,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>299</v>
@@ -10337,7 +10336,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>41791</v>
@@ -10364,7 +10363,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>47</v>
@@ -10384,7 +10383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>48</v>
@@ -10406,7 +10405,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>300</v>
@@ -10426,7 +10425,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A361,1)</f>
         <v>41821</v>
@@ -10451,7 +10450,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -10478,7 +10477,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>45</v>
@@ -10500,7 +10499,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>302</v>
@@ -10520,7 +10519,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>41883</v>
@@ -10547,7 +10546,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>303</v>
@@ -10567,7 +10566,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>41913</v>
@@ -10594,7 +10593,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>304</v>
@@ -10614,7 +10613,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A371,1)</f>
         <v>41944</v>
@@ -10639,7 +10638,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -10666,7 +10665,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>307</v>
@@ -10686,7 +10685,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>211</v>
       </c>
@@ -10708,7 +10707,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42005</v>
@@ -10735,7 +10734,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="4"/>
         <v>42036</v>
@@ -10756,7 +10755,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -10781,7 +10780,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="4"/>
         <v>42095</v>
@@ -10804,7 +10803,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -10831,7 +10830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -10853,7 +10852,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>42156</v>
@@ -10880,7 +10879,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -10902,7 +10901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>48</v>
@@ -10924,7 +10923,7 @@
         <v>42070</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A383,1)</f>
         <v>42186</v>
@@ -10951,7 +10950,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>47</v>
@@ -10971,7 +10970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>48</v>
@@ -10993,7 +10992,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A386,1)</f>
         <v>42217</v>
@@ -11014,7 +11013,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -11035,7 +11034,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="4"/>
         <v>42278</v>
@@ -11062,7 +11061,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="4"/>
         <v>42309</v>
@@ -11089,7 +11088,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="4"/>
         <v>42339</v>
@@ -11110,7 +11109,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
         <v>210</v>
       </c>
@@ -11132,7 +11131,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42370</v>
@@ -11153,7 +11152,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="4"/>
         <v>42401</v>
@@ -11180,7 +11179,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="4"/>
         <v>42430</v>
@@ -11201,7 +11200,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="4"/>
         <v>42461</v>
@@ -11226,7 +11225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="4"/>
         <v>42491</v>
@@ -11253,7 +11252,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>289</v>
@@ -11273,7 +11272,7 @@
         <v>42405</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42522</v>
@@ -11294,7 +11293,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -11321,7 +11320,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -11348,7 +11347,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -11375,7 +11374,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -11397,7 +11396,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>42644</v>
@@ -11424,7 +11423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A406,1)</f>
         <v>42675</v>
@@ -11451,7 +11450,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" ref="A408:A427" si="5">EDATE(A407,1)</f>
         <v>42705</v>
@@ -11476,7 +11475,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="48" t="s">
         <v>209</v>
       </c>
@@ -11498,7 +11497,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>42736</v>
@@ -11525,7 +11524,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="5"/>
         <v>42767</v>
@@ -11552,7 +11551,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>45</v>
@@ -11574,7 +11573,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42795</v>
@@ -11599,7 +11598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>48</v>
@@ -11621,7 +11620,7 @@
         <v>42981</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42826</v>
@@ -11642,7 +11641,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="5"/>
         <v>42856</v>
@@ -11669,7 +11668,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -11691,7 +11690,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>47</v>
@@ -11711,7 +11710,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A416,1)</f>
         <v>42887</v>
@@ -11736,7 +11735,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>57</v>
@@ -11758,7 +11757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -11780,7 +11779,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A419,1)</f>
         <v>42917</v>
@@ -11801,7 +11800,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="5"/>
         <v>42948</v>
@@ -11828,7 +11827,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -11850,7 +11849,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>48</v>
@@ -11872,7 +11871,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A423,1)</f>
         <v>42979</v>
@@ -11893,7 +11892,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="5"/>
         <v>43009</v>
@@ -11920,7 +11919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>45</v>
@@ -11942,7 +11941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>43040</v>
@@ -11969,7 +11968,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -11991,7 +11990,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -12013,7 +12012,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>48</v>
@@ -12035,7 +12034,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>43070</v>
@@ -12062,7 +12061,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="48" t="s">
         <v>44</v>
       </c>
@@ -12080,7 +12079,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43101</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43132</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>45</v>
@@ -12151,7 +12150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43160</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>47</v>
@@ -12194,7 +12193,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43191</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -12239,7 +12238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>47</v>
@@ -12282,7 +12281,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>48</v>
@@ -12301,7 +12300,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>50</v>
@@ -12320,7 +12319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43252</v>
       </c>
@@ -12340,7 +12339,7 @@
       <c r="J446" s="12"/>
       <c r="K446" s="15"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43282</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43313</v>
       </c>
@@ -12392,7 +12391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43344</v>
       </c>
@@ -12412,7 +12411,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43374</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43405</v>
       </c>
@@ -12458,7 +12457,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43435</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>57</v>
@@ -12506,7 +12505,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>60</v>
       </c>
@@ -12524,7 +12523,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43466</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>61</v>
@@ -12569,7 +12568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43497</v>
       </c>
@@ -12595,7 +12594,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>47</v>
@@ -12612,7 +12611,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43525</v>
       </c>
@@ -12638,7 +12637,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43556</v>
       </c>
@@ -12658,7 +12657,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43586</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>48</v>
@@ -12701,7 +12700,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>57</v>
@@ -12720,7 +12719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -12739,7 +12738,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -12758,7 +12757,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -12777,7 +12776,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43617</v>
       </c>
@@ -12803,7 +12802,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43647</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -12848,7 +12847,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>48</v>
@@ -12867,7 +12866,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43678</v>
       </c>
@@ -12887,7 +12886,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43709</v>
       </c>
@@ -12907,7 +12906,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43739</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43770</v>
       </c>
@@ -12959,7 +12958,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43800</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>45</v>
@@ -13007,7 +13006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -13029,7 +13028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
         <v>67</v>
       </c>
@@ -13047,7 +13046,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43831</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>68</v>
@@ -13090,7 +13089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43862</v>
       </c>
@@ -13114,7 +13113,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43891</v>
       </c>
@@ -13134,7 +13133,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43922</v>
       </c>
@@ -13154,7 +13153,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43952</v>
       </c>
@@ -13174,7 +13173,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43983</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44013</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44044</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44075</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>70</v>
@@ -13295,7 +13294,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>70</v>
@@ -13314,7 +13313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>48</v>
@@ -13333,7 +13332,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44105</v>
       </c>
@@ -13353,7 +13352,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44136</v>
       </c>
@@ -13379,7 +13378,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>50</v>
@@ -13398,7 +13397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44166</v>
       </c>
@@ -13418,7 +13417,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>75</v>
       </c>
@@ -13436,7 +13435,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44197</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44228</v>
       </c>
@@ -13482,7 +13481,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44256</v>
       </c>
@@ -13506,7 +13505,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44287</v>
       </c>
@@ -13526,7 +13525,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44317</v>
       </c>
@@ -13546,7 +13545,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44348</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44378</v>
       </c>
@@ -13590,7 +13589,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44409</v>
       </c>
@@ -13610,7 +13609,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44440</v>
       </c>
@@ -13630,7 +13629,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44470</v>
       </c>
@@ -13650,7 +13649,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44501</v>
       </c>
@@ -13670,7 +13669,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44531</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
         <v>78</v>
       </c>
@@ -13714,7 +13713,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44562</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44593</v>
       </c>
@@ -13766,7 +13765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>48</v>
@@ -13785,7 +13784,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>70</v>
@@ -13804,7 +13803,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -13821,7 +13820,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44621</v>
       </c>
@@ -13847,7 +13846,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44652</v>
       </c>
@@ -13867,7 +13866,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44682</v>
       </c>
@@ -13893,7 +13892,7 @@
         <v>44694</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>48</v>
@@ -13912,7 +13911,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -13931,7 +13930,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44713</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>47</v>
@@ -13974,7 +13973,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44743</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44774</v>
       </c>
@@ -14026,7 +14025,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44805</v>
       </c>
@@ -14052,7 +14051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44835</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>48</v>
@@ -14100,7 +14099,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44866</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44896</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>87</v>
@@ -14174,7 +14173,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="48" t="s">
         <v>89</v>
       </c>
@@ -14192,7 +14191,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44927</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A531,1)</f>
         <v>44958</v>
@@ -14245,9 +14244,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <f t="shared" ref="A533:A546" si="6">EDATE(A532,1)</f>
+        <f t="shared" ref="A533:A547" si="6">EDATE(A532,1)</f>
         <v>44986</v>
       </c>
       <c r="B533" s="20" t="s">
@@ -14272,7 +14271,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>45</v>
@@ -14294,7 +14293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>47</v>
@@ -14314,7 +14313,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A533,1)</f>
         <v>45017</v>
@@ -14335,7 +14334,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" ref="A537" si="7">EDATE(A536,1)</f>
         <v>45047</v>
@@ -14362,7 +14361,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>50</v>
@@ -14384,7 +14383,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>70</v>
@@ -14406,7 +14405,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A537,1)</f>
         <v>45078</v>
@@ -14431,12 +14430,14 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="6"/>
         <v>45108</v>
       </c>
-      <c r="B541" s="20"/>
+      <c r="B541" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C541" s="13"/>
       <c r="D541" s="39"/>
       <c r="E541" s="9"/>
@@ -14445,17 +14446,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H541" s="39"/>
+      <c r="H541" s="39">
+        <v>1</v>
+      </c>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
-    </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542" s="40">
-        <f t="shared" si="6"/>
-        <v>45139</v>
-      </c>
-      <c r="B542" s="20"/>
+      <c r="K541" s="49">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40"/>
+      <c r="B542" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
@@ -14467,12 +14471,14 @@
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
-    </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K542" s="49">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <f t="shared" si="6"/>
-        <v>45170</v>
+        <f>EDATE(A541,1)</f>
+        <v>45139</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14488,10 +14494,10 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="6"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14507,10 +14513,10 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" si="6"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14526,10 +14532,10 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="6"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14545,21 +14551,40 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A547" s="41"/>
-      <c r="B547" s="15"/>
-      <c r="C547" s="42"/>
-      <c r="D547" s="43"/>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="40">
+        <f t="shared" si="6"/>
+        <v>45261</v>
+      </c>
+      <c r="B547" s="20"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="39"/>
       <c r="E547" s="9"/>
-      <c r="F547" s="15"/>
-      <c r="G547" s="42" t="str">
+      <c r="F547" s="20"/>
+      <c r="G547" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H547" s="43"/>
+      <c r="H547" s="39"/>
       <c r="I547" s="9"/>
-      <c r="J547" s="12"/>
-      <c r="K547" s="15"/>
+      <c r="J547" s="11"/>
+      <c r="K547" s="20"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="41"/>
+      <c r="B548" s="15"/>
+      <c r="C548" s="42"/>
+      <c r="D548" s="43"/>
+      <c r="E548" s="9"/>
+      <c r="F548" s="15"/>
+      <c r="G548" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H548" s="43"/>
+      <c r="I548" s="9"/>
+      <c r="J548" s="12"/>
+      <c r="K548" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14576,10 +14601,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14602,28 +14627,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14636,7 +14661,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14665,7 +14690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -14689,17 +14714,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>346</v>
       </c>
@@ -14723,10 +14748,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>362.93599999999998</v>
+        <v>361.93599999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14754,7 +14779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14780,7 +14805,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14806,7 +14831,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14832,7 +14857,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14858,7 +14883,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14884,7 +14909,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14910,7 +14935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14936,7 +14961,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14956,7 +14981,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14976,7 +15001,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14996,7 +15021,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15017,7 +15042,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15038,7 +15063,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15059,7 +15084,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15080,7 +15105,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15101,7 +15126,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15122,7 +15147,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15143,7 +15168,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15164,7 +15189,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15185,7 +15210,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15206,7 +15231,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15227,7 +15252,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15248,7 +15273,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15269,7 +15294,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15290,7 +15315,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15311,7 +15336,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15332,7 +15357,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15353,7 +15378,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15374,7 +15399,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15395,7 +15420,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15416,7 +15441,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15425,7 +15450,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15434,7 +15459,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15443,7 +15468,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15452,7 +15477,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15461,7 +15486,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15470,7 +15495,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15479,7 +15504,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15488,7 +15513,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15497,7 +15522,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15506,7 +15531,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15515,7 +15540,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15524,7 +15549,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15533,7 +15558,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15542,7 +15567,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15551,7 +15576,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15560,7 +15585,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15569,7 +15594,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15578,7 +15603,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15587,7 +15612,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15596,7 +15621,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15605,7 +15630,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15614,7 +15639,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15623,7 +15648,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15632,7 +15657,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15641,7 +15666,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15650,7 +15675,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15659,7 +15684,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15668,7 +15693,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15677,7 +15702,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
